--- a/data_process/xlsx/jongno_F2.xlsx
+++ b/data_process/xlsx/jongno_F2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>contact</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -496,6 +501,11 @@
           <t>02-399-1000</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/11576170/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143668152</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -528,11 +538,16 @@
           <t>02-3481-8843</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/38576076/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143674262</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>충무아트센터</t>
+          <t>세종문화회관 대극장</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -552,19 +567,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>서울 중구 퇴계로 387</t>
+          <t>서울 종로구 세종대로 175 세종이야기</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>02-2230-6600</t>
+          <t>02-399-1111</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/13412847/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143679332</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>국립정동극장</t>
+          <t>충무아트센터</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -574,7 +594,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -584,19 +604,24 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>서울 중구 정동길 43</t>
+          <t>서울 중구 퇴계로 387</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>02-751-1500</t>
+          <t>02-2230-6600</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/11663705/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143684339</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>세종문화회관 대극장</t>
+          <t>국립정동극장</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -606,7 +631,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -616,12 +641,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>서울 종로구 세종대로 175 세종이야기</t>
+          <t>서울 중구 정동길 43</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>02-399-1111</t>
+          <t>02-751-1500</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/11620908/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143689742</t>
         </is>
       </c>
     </row>
@@ -638,7 +668,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>4.38</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -654,6 +684,11 @@
       <c r="F7" t="inlineStr">
         <is>
           <t>02-779-1595</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/20978368/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143694988</t>
         </is>
       </c>
     </row>
@@ -688,16 +723,21 @@
           <t>02-742-9637</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1524725593/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143699991</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>홍익대학교 대학로 아트센터</t>
+          <t>달밤엔씨어터</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>공연장</t>
+          <t>공연,연극시설</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -712,29 +752,34 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>서울 종로구 대학로 57</t>
+          <t>서울 종로구 대학로14길 18-2 지하1층</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>02-742-0300</t>
+          <t>02-985-5654</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1546280678/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143705623</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>달밤엔씨어터</t>
+          <t>세종문화회관 M씨어터</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>공연,연극시설</t>
+          <t>공연장</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -744,19 +789,24 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>서울 종로구 대학로14길 18-2 지하1층</t>
+          <t>서울 종로구 세종대로 175 세종이야기</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>02-985-5654</t>
+          <t>02-399-1111</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/13412846/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143710557</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>세종문화회관 M씨어터</t>
+          <t>홍익대학교 대학로 아트센터</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -766,7 +816,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -776,19 +826,24 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>서울 종로구 세종대로 175 세종이야기</t>
+          <t>서울 종로구 대학로 57</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>02-399-1111</t>
+          <t>02-742-0300</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/31222671/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143717374</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>홍익대학교대학로아트센터 대극장</t>
+          <t>대학로티오엠</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -798,7 +853,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -808,19 +863,24 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>서울 종로구 대학로 57</t>
+          <t>서울 종로구 대학로8가길 85</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>02-742-0300</t>
+          <t>1544-8303</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/35445215/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143722960</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>대학로티오엠</t>
+          <t>JTN 아트홀 1관</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -830,22 +890,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>712</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>서울 종로구 대학로8가길 85</t>
+          <t>서울 종로구 이화장길 26</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1544-8303</t>
+          <t>02-779-1595</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/13413042/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143727991</t>
         </is>
       </c>
     </row>
@@ -862,12 +927,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>958</t>
+          <t>712</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -878,18 +943,23 @@
       <c r="F14" t="inlineStr">
         <is>
           <t>02-751-1500</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/11639908/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143733674</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>세종문화회관 S씨어터</t>
+          <t>홍익대학교대학로아트센터 대극장</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>공연,연극시설</t>
+          <t>공연장</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -899,29 +969,34 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>958</t>
+          <t>966</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>서울 종로구 세종대로 175</t>
+          <t>서울 종로구 대학로 57</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>02-742-0300</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/37609050/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143738706</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>두산아트센터</t>
+          <t>링크아트센터</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>공연장</t>
+          <t>공연,연극시설</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -931,29 +1006,34 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1016</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>서울 종로구 종로33길 15</t>
+          <t>서울 종로구 대학로14길 29 링크아트센터</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>02-708-5001</t>
+          <t>02-3674-7897</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1142511774/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143743701</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>링크아트센터</t>
+          <t>두산아트센터</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>공연,연극시설</t>
+          <t>공연장</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -963,17 +1043,22 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>831</t>
+          <t>834</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>서울 종로구 대학로14길 29 링크아트센터</t>
+          <t>서울 종로구 종로33길 15</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>02-3674-7897</t>
+          <t>02-708-5001</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/11639707/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143748734</t>
         </is>
       </c>
     </row>
@@ -990,12 +1075,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>4.18</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>834</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1006,18 +1091,23 @@
       <c r="F18" t="inlineStr">
         <is>
           <t>02-766-2115</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/33211250/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143754139</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>아스가르드 씨어터</t>
+          <t>세종문화회관 S씨어터</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>공연장</t>
+          <t>공연,연극시설</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1032,19 +1122,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>서울 종로구 동숭길 140 지하 1층</t>
+          <t>서울 종로구 세종대로 175</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0507-1318-6014</t>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1874562298/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143759387</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CKL스테이지</t>
+          <t>아스가르드 씨어터</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1054,29 +1149,34 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>1029</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>서울 중구 청계천로 40 지하 1층 CKL스테이지</t>
+          <t>서울 종로구 동숭길 140 지하 1층</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>02-6441-3951</t>
+          <t>0507-1318-6014</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1470639686/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143766260</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>아루또 소극장</t>
+          <t>아트포레스트</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1086,29 +1186,34 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>서울 종로구 대학로8가길 48 연경빌딩 4층</t>
+          <t>서울 종로구 대학로12길 22</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>02-6012-2511</t>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/51429752/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143771210</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>서연아트홀</t>
+          <t>서경대학교 공연예술센터</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1118,29 +1223,34 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>서울 종로구 창경궁로 258-9</t>
+          <t>서울 종로구 동숭길 148</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>070-5180-5956</t>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1249778156/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143778737</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>서울코미디클럽</t>
+          <t>서연아트홀</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1150,7 +1260,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1160,19 +1270,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>서울 종로구 종로14길 4 2층</t>
+          <t>서울 종로구 창경궁로 258-9</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>070-4633-6407</t>
+          <t>070-5180-5956</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/11639701/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143785819</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>시온아트홀</t>
+          <t>라온아트홀 / 연극 한뼘사이</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1182,61 +1297,71 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>서울 종로구 대학로8가길 52 3층</t>
+          <t>서울 종로구 대학로10길 11</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>070-8719-9106</t>
+          <t>070-8952-2151</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1464592641/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143790821</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>라온아트홀 / 연극 한뼘사이</t>
+          <t>바탕골소극장</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>공연장</t>
+          <t>공연,연극시설</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>서울 종로구 대학로10길 11</t>
+          <t>서울 종로구 대학로10길 5 5층</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>070-8952-2151</t>
+          <t>02-764-8760</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/38009123/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143796033</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>초록씨어터</t>
+          <t>대학로자유극장</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1246,61 +1371,71 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>4.85</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>743</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>서울 종로구 대학로 128 21세기빌딩 5층</t>
+          <t>서울 종로구 대학로12길 31</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0507-1356-1932</t>
+          <t>0507-1370-0661</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/317404170/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143801706</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>서경대학교 공연예술센터</t>
+          <t>정극장 행오버</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>공연장</t>
+          <t>공연,연극시설</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>4.85</t>
+          <t>4.73</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>743</t>
+          <t>1522</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>서울 종로구 동숭길 148</t>
+          <t>서울 종로구 대학로12길 69 3F</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0507-1352-6485</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1888937466/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143806958</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>아트포레스트</t>
+          <t>예그린씨어터</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1310,29 +1445,34 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>4.73</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>1522</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>서울 종로구 대학로12길 22</t>
+          <t>서울 종로구 동숭길 130-5</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>02-6673-0100</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/33949063/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143812549</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>충무아트센터 대극장</t>
+          <t>시온아트홀</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1342,29 +1482,34 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>325</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>서울 중구 퇴계로 387 충무아트홀</t>
+          <t>서울 종로구 대학로8가길 52 3층</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>02-2230-6600</t>
+          <t>070-8719-9106</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1491198750/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143817575</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>틴틴홀</t>
+          <t>서울코미디클럽</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1374,29 +1519,34 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>171</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>서울 종로구 대학로10길 24 스타리움빌딩</t>
+          <t>서울 종로구 종로14길 4 2층</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>02-764-8760</t>
+          <t>070-4633-6407</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1455820061/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143824314</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>JTN 아트홀 2관</t>
+          <t>CKL스테이지</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1406,29 +1556,34 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>4.36</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>304</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>서울 종로구 이화장길 26</t>
+          <t>서울 중구 청계천로 40 지하 1층 CKL스테이지</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>02-779-1595</t>
+          <t>02-6441-3951</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/913710464/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143831168</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>후암씨어터</t>
+          <t>아티스탄홀</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1443,24 +1598,29 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>685</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>서울 종로구 대학로11길 23 7층</t>
+          <t>서울 종로구 대학로 132 형원빌딩</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>02-1661-6981</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/13284573/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143837979</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>예그린씨어터</t>
+          <t>동덕여자대학교 공연예술센터</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1475,24 +1635,29 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>449</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>서울 종로구 동숭길 130-5</t>
+          <t>서울 종로구 동숭길 126 동덕여대 공연예술 연구소</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>02-6673-0100</t>
+          <t>02-940-4578</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/11611690/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143844840</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>JTN 아트홀 4관</t>
+          <t>틴틴홀</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1502,39 +1667,44 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>638</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>서울 종로구 이화장길 26</t>
+          <t>서울 종로구 대학로10길 24 스타리움빌딩</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>02-779-1595</t>
+          <t>02-764-8760</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/13280778/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143852404</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>바탕골소극장</t>
+          <t>충무아트센터 대극장</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>공연,연극시설</t>
+          <t>공연장</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1544,29 +1714,34 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>서울 종로구 대학로10길 5 5층</t>
+          <t>서울 중구 퇴계로 387 충무아트홀</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>02-764-8760</t>
+          <t>02-2230-6600</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/13413087/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143857975</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>정극장 행오버</t>
+          <t>JTN 아트홀 2관</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>공연,연극시설</t>
+          <t>공연장</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1576,19 +1751,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>서울 종로구 대학로12길 69 3F</t>
+          <t>서울 종로구 이화장길 26</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0507-1352-6485</t>
+          <t>02-779-1595</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/13413043/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143863150</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>파랑씨어터</t>
+          <t>컬쳐씨어터</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1598,29 +1778,34 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1479</t>
+          <t>1485</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>서울 종로구 대학로8가길 36</t>
+          <t>서울 종로구 대학로8가길 80 매표소 1층, 공연장 5층</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>070-4870-1931</t>
+          <t>0507-1486-0213</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1910206912/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143868394</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>JTN 아트홀 1관</t>
+          <t>플러스씨어터</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1630,29 +1815,34 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>1485</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>서울 종로구 이화장길 26</t>
+          <t>서울 종로구 대학로12길 73</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>02-779-1595</t>
+          <t>02-556-4303</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1138854501/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143874290</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>플러스씨어터</t>
+          <t>해피시어터/연극라면</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1662,39 +1852,44 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>693</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>서울 종로구 대학로12길 73</t>
+          <t>서울 종로구 대학로10길 5 지하1층</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>02-556-4303</t>
+          <t>0507-1329-7611</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1352781000/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143879380</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>해피시어터/연극라면</t>
+          <t>초록씨어터</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>공연장</t>
+          <t>공연,연극시설</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1704,115 +1899,135 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>서울 종로구 대학로10길 5 지하1층</t>
+          <t>서울 종로구 대학로 128 21세기빌딩 5층</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0507-1329-7611</t>
+          <t>0507-1356-1932</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1219330836/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143885158</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>컬쳐씨어터</t>
+          <t>JTN 아트홀 4관</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>공연,연극시설</t>
+          <t>공연장</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>749</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>서울 종로구 대학로8가길 80 매표소 1층, 공연장 5층</t>
+          <t>서울 종로구 이화장길 26</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0507-1486-0213</t>
+          <t>02-779-1595</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/13413045/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143890442</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>대학로자유극장</t>
+          <t>국립극단 명동예술극장</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>공연,연극시설</t>
+          <t>공연장</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1468</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>서울 종로구 대학로12길 31</t>
+          <t>서울 중구 명동길 35</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0507-1370-0661</t>
+          <t>1644-2003</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/13097297/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143895595</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>아티스탄홀</t>
+          <t>파랑씨어터</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>공연장</t>
+          <t>공연,연극시설</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>678</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>서울 종로구 대학로 132 형원빌딩</t>
+          <t>서울 종로구 대학로8가길 36</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>02-1661-6981</t>
+          <t>070-4870-1931</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/35913944/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143901179</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>국립극단 명동예술극장</t>
+          <t>후암씨어터</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1822,22 +2037,27 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>577</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>서울 중구 명동길 35</t>
+          <t>서울 종로구 대학로11길 23 7층</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>1644-2003</t>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1741020830/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143906345</t>
         </is>
       </c>
     </row>
@@ -1854,7 +2074,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1870,13 +2090,18 @@
       <c r="F45" t="inlineStr">
         <is>
           <t>070-7542-5089</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/11663698/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143913321</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>동덕여자대학교 공연예술센터</t>
+          <t>하마씨어터</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1886,29 +2111,34 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>669</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>서울 종로구 동숭길 126 동덕여대 공연예술 연구소</t>
+          <t>서울 종로구 대학로10길 15-11 4층</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>02-940-4578</t>
+          <t>02-766-0830</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1450717347/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143920172</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>한성아트홀 제2관</t>
+          <t>콘텐츠박스</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1918,29 +2148,34 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>498</t>
+          <t>669</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>서울 종로구 창경궁로 254 동원빌딩 지하1층</t>
+          <t>서울 종로구 동숭길 55 대학빌딩 B1</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>02-741-0251</t>
+          <t>02-747-2232</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/12059901/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143925852</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>스튜디오블루</t>
+          <t>스타스테이지</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1950,29 +2185,34 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.32</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>서울 종로구 대학로8가길 80 리트모빌딩 지하</t>
+          <t>서울 종로구 대학로12길 15 . 지하2층(동숭동)</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0507-1328-9207</t>
+          <t>0507-1440-5356</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1169564316/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143930957</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>하마씨어터</t>
+          <t>JTN 아트홀 3관</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1982,22 +2222,27 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>662</t>
+          <t>445</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>서울 종로구 대학로10길 15-11 4층</t>
+          <t>서울 종로구 이화장길 26 JTN 아트홀</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>02-766-0830</t>
+          <t>0507-1302-1596</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/13413044/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143935915</t>
         </is>
       </c>
     </row>
@@ -2014,12 +2259,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>662</t>
+          <t>65</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2030,13 +2275,18 @@
       <c r="F50" t="inlineStr">
         <is>
           <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1784191440/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143942659</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>룸씨어터</t>
+          <t>스카이씨어터</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2051,17 +2301,22 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>528</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>서울 종로구 대학로10길 12 지하1층</t>
+          <t>서울 종로구 대학로8가길 52</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0507-1377-2335</t>
+          <t>070-4106-8889</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/21004693/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143951586</t>
         </is>
       </c>
     </row>

--- a/data_process/xlsx/jongno_F2.xlsx
+++ b/data_process/xlsx/jongno_F2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>url</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>create_time</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -503,24 +508,29 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/11576170/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143668152</t>
+          <t>https://pcmap.place.naver.com/place/11576170/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.97576466&amp;y=37.5722463700023&amp;timestamp=202309071852</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:51:56</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>드림아트센터</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>공연장</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -530,17 +540,22 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>서울 종로구 동숭길 123 드림아트센터</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>02-3481-8843</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/38576076/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143674262</t>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:51:56</t>
         </is>
       </c>
     </row>
@@ -557,7 +572,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -577,7 +592,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/13412847/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143679332</t>
+          <t>https://pcmap.place.naver.com/place/13412847/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.976042200552&amp;y=37.5726952008458&amp;timestamp=202309071852</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:51:56</t>
         </is>
       </c>
     </row>
@@ -594,7 +614,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -614,14 +634,19 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/11663705/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143684339</t>
+          <t>https://pcmap.place.naver.com/place/11663705/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.01474464&amp;y=37.56594000999999&amp;timestamp=202309071852</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:51:56</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>국립정동극장</t>
+          <t>홍익대학교 대학로 아트센터</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -631,7 +656,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -641,29 +666,34 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>서울 중구 정동길 43</t>
+          <t>서울 종로구 대학로 57</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>02-751-1500</t>
+          <t>02-742-0300</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/11620908/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143689742</t>
+          <t>https://pcmap.place.naver.com/place/31222671/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.001490600035&amp;y=37.5767737012862&amp;timestamp=202309071852</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:51:56</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>대학로 JTN 아트홀</t>
+          <t>드림아트센터</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>공연,연극시설</t>
+          <t>공연장</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -678,24 +708,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>서울 종로구 이화장길 26 대학로 JTN 아트홀</t>
+          <t>서울 종로구 동숭길 123 드림아트센터</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>02-779-1595</t>
+          <t>02-3481-8843</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/20978368/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143694988</t>
+          <t>https://pcmap.place.naver.com/place/38576076/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0032936998&amp;y=37.5832930007066&amp;timestamp=202309071852</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:51:56</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>예스24스테이지</t>
+          <t>대학로 JTN 아트홀</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -705,7 +740,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -715,17 +750,22 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>서울 종로구 대학로12길 21</t>
+          <t>서울 종로구 이화장길 26 대학로 JTN 아트홀</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>02-742-9637</t>
+          <t>02-779-1595</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1524725593/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143699991</t>
+          <t>https://pcmap.place.naver.com/place/20978368/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.003943299665&amp;y=37.5766384003194&amp;timestamp=202309071853</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:51:56</t>
         </is>
       </c>
     </row>
@@ -742,7 +782,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -762,24 +802,29 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1546280678/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143705623</t>
+          <t>https://pcmap.place.naver.com/place/1546280678/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.002678100225&amp;y=37.5840098010373&amp;timestamp=202309071853</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:51:56</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>세종문화회관 M씨어터</t>
+          <t>예스24스테이지</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>공연장</t>
+          <t>공연,연극시설</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -789,61 +834,71 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>서울 종로구 세종대로 175 세종이야기</t>
+          <t>서울 종로구 대학로12길 21</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>02-399-1111</t>
+          <t>02-742-9637</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/13412846/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143710557</t>
+          <t>https://pcmap.place.naver.com/place/1524725593/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.00317109166899&amp;y=37.5827685969849&amp;timestamp=202309071853</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:51:56</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>홍익대학교 대학로 아트센터</t>
+          <t>링크아트센터</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>공연장</t>
+          <t>공연,연극시설</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>723</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>서울 종로구 대학로 57</t>
+          <t>서울 종로구 대학로14길 29 링크아트센터</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>02-742-0300</t>
+          <t>02-3674-7897</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/31222671/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143717374</t>
+          <t>https://pcmap.place.naver.com/place/1142511774/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.00228732333608&amp;y=37.58461326188001&amp;timestamp=202309071853</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:51:56</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>대학로티오엠</t>
+          <t>세종문화회관 M씨어터</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -853,7 +908,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -863,24 +918,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>서울 종로구 대학로8가길 85</t>
+          <t>서울 종로구 세종대로 175 세종이야기</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1544-8303</t>
+          <t>02-399-1111</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/35445215/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143722960</t>
+          <t>https://pcmap.place.naver.com/place/13412846/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.97606134999998&amp;y=37.57183632999999&amp;timestamp=202309071853</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:51:56</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>JTN 아트홀 1관</t>
+          <t>대학로티오엠</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -890,27 +950,32 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>712</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>서울 종로구 이화장길 26</t>
+          <t>서울 종로구 대학로8가길 85</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>02-779-1595</t>
+          <t>1544-8303</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/13413042/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143727991</t>
+          <t>https://pcmap.place.naver.com/place/35445215/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.003650399636&amp;y=37.582296801186104&amp;timestamp=202309071853</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:51:56</t>
         </is>
       </c>
     </row>
@@ -927,12 +992,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>4.71</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>712</t>
+          <t>968</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -947,14 +1012,19 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/11639908/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143733674</t>
+          <t>https://pcmap.place.naver.com/place/11639908/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.97607520050418&amp;y=37.566777098881566&amp;timestamp=202309071853</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:51:56</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>홍익대학교대학로아트센터 대극장</t>
+          <t>두산아트센터</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -964,39 +1034,44 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>966</t>
+          <t>834</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>서울 종로구 대학로 57</t>
+          <t>서울 종로구 종로33길 15</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>02-742-0300</t>
+          <t>02-708-5001</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/37609050/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143738706</t>
+          <t>https://pcmap.place.naver.com/place/11639707/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0008496&amp;y=37.571829500003304&amp;timestamp=202309071853</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:51:56</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>링크아트센터</t>
+          <t>홍익대학교대학로아트센터 대극장</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>공연,연극시설</t>
+          <t>공연장</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1011,24 +1086,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>서울 종로구 대학로14길 29 링크아트센터</t>
+          <t>서울 종로구 대학로 57</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>02-3674-7897</t>
+          <t>02-742-0300</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1142511774/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143743701</t>
+          <t>https://pcmap.place.naver.com/place/37609050/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.001482599612&amp;y=37.5767454012867&amp;timestamp=202309071853</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:51:56</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>두산아트센터</t>
+          <t>서울코미디클럽</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1038,27 +1118,32 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>834</t>
+          <t>183</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>서울 종로구 종로33길 15</t>
+          <t>서울 종로구 종로14길 4 2층</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>02-708-5001</t>
+          <t>070-4633-6407</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/11639707/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143748734</t>
+          <t>https://pcmap.place.naver.com/place/1455820061/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9867305&amp;y=37.5698289&amp;timestamp=202309071853</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:51:56</t>
         </is>
       </c>
     </row>
@@ -1075,12 +1160,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>4.18</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>834</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1095,51 +1180,61 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/33211250/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143754139</t>
+          <t>https://pcmap.place.naver.com/place/33211250/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.00370799960302&amp;y=37.5811743004829&amp;timestamp=202309071853</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:51:56</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>세종문화회관 S씨어터</t>
+          <t>JTN 아트홀 1관</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>공연,연극시설</t>
+          <t>공연장</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>4.18</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>721</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>서울 종로구 세종대로 175</t>
+          <t>서울 종로구 이화장길 26</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>02-779-1595</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1874562298/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143759387</t>
+          <t>https://pcmap.place.naver.com/place/13413042/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.003928799889&amp;y=37.5765962996977&amp;timestamp=202309071854</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:51:56</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>아스가르드 씨어터</t>
+          <t>예그린씨어터</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1149,34 +1244,39 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1029</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>서울 종로구 동숭길 140 지하 1층</t>
+          <t>서울 종로구 동숭길 130-5</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0507-1318-6014</t>
+          <t>02-6673-0100</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1470639686/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143766260</t>
+          <t>https://pcmap.place.naver.com/place/33949063/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.003046600426&amp;y=37.5839218007946&amp;timestamp=202309071854</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:51:56</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>아트포레스트</t>
+          <t>아스가르드 씨어터</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1186,64 +1286,74 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>196</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>서울 종로구 대학로12길 22</t>
+          <t>서울 종로구 동숭길 140 지하 1층</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0507-1318-6014</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/51429752/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143771210</t>
+          <t>https://pcmap.place.naver.com/place/1470639686/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.00258239999998&amp;y=37.5836714&amp;timestamp=202309071854</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:51:56</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>서경대학교 공연예술센터</t>
+          <t>정극장 행오버</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>공연장</t>
+          <t>공연,연극시설</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.73</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>1547</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>서울 종로구 동숭길 148</t>
+          <t>서울 종로구 대학로12길 69 3F</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0507-1352-6485</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1249778156/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143778737</t>
+          <t>https://pcmap.place.naver.com/place/1888937466/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.00397809999998&amp;y=37.581013000000006&amp;timestamp=202309071854</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:51:56</t>
         </is>
       </c>
     </row>
@@ -1260,7 +1370,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>4.18</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1280,51 +1390,61 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/11639701/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143785819</t>
+          <t>https://pcmap.place.naver.com/place/11639701/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.00053209993499&amp;y=37.583902600636&amp;timestamp=202309071854</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:51:56</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>라온아트홀 / 연극 한뼘사이</t>
+          <t>대학로자유극장</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>공연장</t>
+          <t>공연,연극시설</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>990</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>서울 종로구 대학로10길 11</t>
+          <t>서울 종로구 대학로12길 31</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>070-8952-2151</t>
+          <t>0507-1370-0661</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1464592641/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143790821</t>
+          <t>https://pcmap.place.naver.com/place/317404170/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.00356619962301&amp;y=37.58274920095529&amp;timestamp=202309071854</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:51:56</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>바탕골소극장</t>
+          <t>세종문화회관 S씨어터</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1334,44 +1454,49 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>1039</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>서울 종로구 대학로10길 5 5층</t>
+          <t>서울 종로구 세종대로 175</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>02-764-8760</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/38009123/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143796033</t>
+          <t>https://pcmap.place.naver.com/place/1874562298/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.97542177161249&amp;y=37.57251565927561&amp;timestamp=202309071854</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:51:56</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>대학로자유극장</t>
+          <t>아트포레스트</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>공연,연극시설</t>
+          <t>공연장</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1381,61 +1506,71 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>서울 종로구 대학로12길 31</t>
+          <t>서울 종로구 대학로12길 22</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0507-1370-0661</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/317404170/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143801706</t>
+          <t>https://pcmap.place.naver.com/place/51429752/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.00307090043299&amp;y=37.582514401238704&amp;timestamp=202309071854</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:51:56</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>정극장 행오버</t>
+          <t>국립극단 명동예술극장</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>공연,연극시설</t>
+          <t>공연장</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1522</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>서울 종로구 대학로12길 69 3F</t>
+          <t>서울 중구 명동길 35</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0507-1352-6485</t>
+          <t>1644-2003</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1888937466/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143806958</t>
+          <t>https://pcmap.place.naver.com/place/13097297/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.984280399701&amp;y=37.563906000684504&amp;timestamp=202309071854</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:51:56</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>예그린씨어터</t>
+          <t>라온아트홀 / 연극 한뼘사이</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1445,34 +1580,39 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1522</t>
+          <t>956</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>서울 종로구 동숭길 130-5</t>
+          <t>서울 종로구 대학로10길 11</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>02-6673-0100</t>
+          <t>070-8952-2151</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/33949063/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143812549</t>
+          <t>https://pcmap.place.naver.com/place/1464592641/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0027291&amp;y=37.5818058&amp;timestamp=202309071854</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:51:56</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>시온아트홀</t>
+          <t>동덕여자대학교 공연예술센터</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1487,29 +1627,34 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>463</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>서울 종로구 대학로8가길 52 3층</t>
+          <t>서울 종로구 동숭길 126 동덕여대 공연예술 연구소</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>070-8719-9106</t>
+          <t>02-940-4578</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1491198750/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143817575</t>
+          <t>https://pcmap.place.naver.com/place/11611690/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.003282700461&amp;y=37.58364340101469&amp;timestamp=202309071854</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:51:56</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>서울코미디클럽</t>
+          <t>서경대학교 공연예술센터</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1519,71 +1664,81 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>서울 종로구 종로14길 4 2층</t>
+          <t>서울 종로구 동숭길 148</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>070-4633-6407</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1455820061/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143824314</t>
+          <t>https://pcmap.place.naver.com/place/1249778156/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.00215100000004&amp;y=37.58352429999989&amp;timestamp=202309071855</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:51:56</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CKL스테이지</t>
+          <t>바탕골소극장</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>공연장</t>
+          <t>공연,연극시설</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>서울 중구 청계천로 40 지하 1층 CKL스테이지</t>
+          <t>서울 종로구 대학로10길 5 5층</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>02-6441-3951</t>
+          <t>02-764-8760</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/913710464/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143831168</t>
+          <t>https://pcmap.place.naver.com/place/38009123/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.002595800492&amp;y=37.58185880136109&amp;timestamp=202309071855</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:51:56</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>아티스탄홀</t>
+          <t>충무아트센터 대극장</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1593,34 +1748,39 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>685</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>서울 종로구 대학로 132 형원빌딩</t>
+          <t>서울 중구 퇴계로 387 충무아트홀</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>02-1661-6981</t>
+          <t>02-2230-6600</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/13284573/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143837979</t>
+          <t>https://pcmap.place.naver.com/place/13413087/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.01477499999999&amp;y=37.565983300000006&amp;timestamp=202309071855</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:51:56</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>동덕여자대학교 공연예술센터</t>
+          <t>JTN 아트홀 4관</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1635,29 +1795,34 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>641</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>서울 종로구 동숭길 126 동덕여대 공연예술 연구소</t>
+          <t>서울 종로구 이화장길 26</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>02-940-4578</t>
+          <t>02-779-1595</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/11611690/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143844840</t>
+          <t>https://pcmap.place.naver.com/place/13413045/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.003944100413&amp;y=37.5766120996967&amp;timestamp=202309071855</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:51:56</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>틴틴홀</t>
+          <t>시온아트홀</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1667,34 +1832,39 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>4.36</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>326</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>서울 종로구 대학로10길 24 스타리움빌딩</t>
+          <t>서울 종로구 대학로8가길 52 3층</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>02-764-8760</t>
+          <t>070-8719-9106</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/13280778/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143852404</t>
+          <t>https://pcmap.place.naver.com/place/1491198750/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.00263659989699&amp;y=37.582999501334&amp;timestamp=202309071855</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:51:56</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>충무아트센터 대극장</t>
+          <t>CKL스테이지</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1704,34 +1874,39 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>4.36</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>309</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>서울 중구 퇴계로 387 충무아트홀</t>
+          <t>서울 중구 청계천로 40 지하 1층 CKL스테이지</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>02-2230-6600</t>
+          <t>02-6441-3951</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/13413087/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143857975</t>
+          <t>https://pcmap.place.naver.com/place/913710464/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9816445&amp;y=37.5685313&amp;timestamp=202309071855</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:51:56</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>JTN 아트홀 2관</t>
+          <t>아티스탄홀</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1741,27 +1916,32 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>687</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>서울 종로구 이화장길 26</t>
+          <t>서울 종로구 대학로 132 형원빌딩</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>02-779-1595</t>
+          <t>02-1661-6981</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/13413043/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143863150</t>
+          <t>https://pcmap.place.naver.com/place/13284573/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.00215969951502&amp;y=37.5830503007529&amp;timestamp=202309071855</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:51:56</t>
         </is>
       </c>
     </row>
@@ -1783,7 +1963,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1485</t>
+          <t>1498</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1798,14 +1978,19 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1910206912/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143868394</t>
+          <t>https://pcmap.place.naver.com/place/1910206912/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.00328209988766&amp;y=37.58244218823287&amp;timestamp=202309071855</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:51:56</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>플러스씨어터</t>
+          <t>해피시어터/연극라면</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1815,34 +2000,39 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1485</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>서울 종로구 대학로12길 73</t>
+          <t>서울 종로구 대학로10길 5 지하1층</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>02-556-4303</t>
+          <t>0507-1329-7611</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1138854501/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143874290</t>
+          <t>https://pcmap.place.naver.com/place/1352781000/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0025915&amp;y=37.5818588&amp;timestamp=202309071855</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:51:56</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>해피시어터/연극라면</t>
+          <t>후암씨어터</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1852,34 +2042,39 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>166</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>서울 종로구 대학로10길 5 지하1층</t>
+          <t>서울 종로구 대학로11길 23 7층</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0507-1329-7611</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1352781000/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143879380</t>
+          <t>https://pcmap.place.naver.com/place/1741020830/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0004414&amp;y=37.5820708&amp;timestamp=202309071855</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:51:56</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>초록씨어터</t>
+          <t>파랑씨어터</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1889,39 +2084,44 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>581</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>서울 종로구 대학로 128 21세기빌딩 5층</t>
+          <t>서울 종로구 대학로8가길 36</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0507-1356-1932</t>
+          <t>070-4870-1931</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1219330836/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143885158</t>
+          <t>https://pcmap.place.naver.com/place/35913944/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.002457800452&amp;y=37.5825377007315&amp;timestamp=202309071856</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:51:56</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>JTN 아트홀 4관</t>
+          <t>초록씨어터</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>공연장</t>
+          <t>공연,연극시설</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1931,29 +2131,34 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>749</t>
+          <t>753</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>서울 종로구 이화장길 26</t>
+          <t>서울 종로구 대학로 128 21세기빌딩 5층</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>02-779-1595</t>
+          <t>0507-1356-1932</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/13413045/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143890442</t>
+          <t>https://pcmap.place.naver.com/place/1219330836/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0021755&amp;y=37.5827062&amp;timestamp=202309071856</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:51:56</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>국립극단 명동예술극장</t>
+          <t>JTN 아트홀 2관</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1963,44 +2168,49 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>743</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>서울 중구 명동길 35</t>
+          <t>서울 종로구 이화장길 26</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>1644-2003</t>
+          <t>02-779-1595</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/13097297/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143895595</t>
+          <t>https://pcmap.place.naver.com/place/13413043/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.003944100413&amp;y=37.5766120996967&amp;timestamp=202309071856</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:51:56</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>파랑씨어터</t>
+          <t>틴틴홀</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>공연,연극시설</t>
+          <t>공연장</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2010,54 +2220,64 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>서울 종로구 대학로8가길 36</t>
+          <t>서울 종로구 대학로10길 24 스타리움빌딩</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>070-4870-1931</t>
+          <t>02-764-8760</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/35913944/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143901179</t>
+          <t>https://pcmap.place.naver.com/place/13280778/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.00355979977499&amp;y=37.58165380059389&amp;timestamp=202309071856</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:51:56</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>후암씨어터</t>
+          <t>에이치씨어터</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>공연장</t>
+          <t>공연,연극시설</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>4.71</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>577</t>
+          <t>151</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>서울 종로구 대학로11길 23 7층</t>
+          <t>서울 종로구 이화장길 54</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>1566-0507</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1741020830/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143906345</t>
+          <t>https://pcmap.place.naver.com/place/1723369684/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.004673&amp;y=37.5775645&amp;timestamp=202309071856</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:51:56</t>
         </is>
       </c>
     </row>
@@ -2094,14 +2314,19 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/11663698/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143913321</t>
+          <t>https://pcmap.place.naver.com/place/11663698/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.00396670053&amp;y=37.5819581009429&amp;timestamp=202309071856</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:51:56</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>하마씨어터</t>
+          <t>JTN 아트홀 3관</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2111,34 +2336,39 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>669</t>
+          <t>447</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>서울 종로구 대학로10길 15-11 4층</t>
+          <t>서울 종로구 이화장길 26 JTN 아트홀</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>02-766-0830</t>
+          <t>0507-1302-1596</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1450717347/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143920172</t>
+          <t>https://pcmap.place.naver.com/place/13413044/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.003944100413&amp;y=37.5766120996967&amp;timestamp=202309071856</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:51:56</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>콘텐츠박스</t>
+          <t>한성아트홀 제1관</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2148,71 +2378,81 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>669</t>
+          <t>422</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>서울 종로구 동숭길 55 대학빌딩 B1</t>
+          <t>서울 종로구 창경궁로 254</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>02-747-2232</t>
+          <t>02-741-0251</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/12059901/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143925852</t>
+          <t>https://pcmap.place.naver.com/place/13413007/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.999982400151&amp;y=37.583749801031296&amp;timestamp=202309071856</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:51:56</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>스타스테이지</t>
+          <t>하마씨어터</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>공연,연극시설</t>
+          <t>공연장</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>4.32</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>677</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>서울 종로구 대학로12길 15 . 지하2층(동숭동)</t>
+          <t>서울 종로구 대학로10길 15-11 4층</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0507-1440-5356</t>
+          <t>02-766-0830</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1169564316/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143930957</t>
+          <t>https://pcmap.place.naver.com/place/1450717347/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.00278829999999&amp;y=37.5822652&amp;timestamp=202309071856</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:51:56</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>JTN 아트홀 3관</t>
+          <t>스카이씨어터</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2227,29 +2467,34 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>531</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>서울 종로구 이화장길 26 JTN 아트홀</t>
+          <t>서울 종로구 대학로8가길 52</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0507-1302-1596</t>
+          <t>070-4106-8889</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/13413044/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143935915</t>
+          <t>https://pcmap.place.naver.com/place/21004693/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.00267569995398&amp;y=37.5830423006052&amp;timestamp=202309071856</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:51:56</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>우미관극장</t>
+          <t>룸씨어터</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2264,34 +2509,39 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>166</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>서울 종로구 종로14길 4 3층</t>
+          <t>서울 종로구 대학로10길 12 지하1층</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0507-1377-2335</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1784191440/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143942659</t>
+          <t>https://pcmap.place.naver.com/place/1039271541/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0028255&amp;y=37.5816161&amp;timestamp=202309071856</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:51:56</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>스카이씨어터</t>
+          <t>드림시어터 소극장</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>공연장</t>
+          <t>공연,연극시설</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2301,22 +2551,27 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>386</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>서울 종로구 대학로8가길 52</t>
+          <t>서울 종로구 대학로10길 15-11 지하1층</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>070-4106-8889</t>
+          <t>0507-1306-0221</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/21004693/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143951586</t>
+          <t>https://pcmap.place.naver.com/place/1205742230/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.00289469286781&amp;y=37.582292567088075&amp;timestamp=202309071857</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:51:56</t>
         </is>
       </c>
     </row>
